--- a/pedroproject/myapp/scam.xlsx
+++ b/pedroproject/myapp/scam.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
   <si>
     <t>Injective Addresses</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Hell Punks</t>
   </si>
   <si>
-    <t>inj1es6ng6jy5pgmaznhdcjxmwyk995upwnep270sy</t>
+    <t>inj1rkz0sk9vjv0l9gdzltwpx2uefk6s8zhe5jfs4p</t>
   </si>
   <si>
     <t>Injective Mobs</t>
@@ -401,6 +401,96 @@
   </si>
   <si>
     <t>City Token</t>
+  </si>
+  <si>
+    <t>inj1emmcqw8yerur57sxfam7086thd08r5c4372afg</t>
+  </si>
+  <si>
+    <t>Takeda send 1191 INJ</t>
+  </si>
+  <si>
+    <t>inj13r4gq9yvdcrmfqhcsp4t4knupm3tkkzucx5v4n</t>
+  </si>
+  <si>
+    <t>Takeda send 980 INJ</t>
+  </si>
+  <si>
+    <t>Takeda send 841 INJ</t>
+  </si>
+  <si>
+    <t>inj1dam75drlqmg2hll0pt37005dlc3a5t9dqsme8y</t>
+  </si>
+  <si>
+    <t>Takeda Contract</t>
+  </si>
+  <si>
+    <t>inj1vxneyzm3zpl6jddflxvdpwf45k7u4yts843kdk</t>
+  </si>
+  <si>
+    <t>Injective Kings send 1458 INJ</t>
+  </si>
+  <si>
+    <t>inj1rs8q59zdztxzt4wq64848pnwt7tdes5kklrlap</t>
+  </si>
+  <si>
+    <t>Send 327 INJ to Injective Kings</t>
+  </si>
+  <si>
+    <t>inj13efkuxlwcr75lwrjel6asa6h66cq0dfz9lm6xm</t>
+  </si>
+  <si>
+    <t>Injective Kings send 278 INJ</t>
+  </si>
+  <si>
+    <t>inj1x26aln79hxrfm8c6v00208wlumrc0l6qtrtn8y</t>
+  </si>
+  <si>
+    <t>Injective Kings send 338 INJ</t>
+  </si>
+  <si>
+    <t>inj15ca3hjtzrlpjv6uhpd8dq0mkw0ky0955qv5f5v</t>
+  </si>
+  <si>
+    <t>Send 100 INJ to Yakuza</t>
+  </si>
+  <si>
+    <t>inj19e7vhagfux7zjpsxg306pan04nl5ynfenmrwhs</t>
+  </si>
+  <si>
+    <t>Hell Punks send 134 INJ</t>
+  </si>
+  <si>
+    <t>inj1jcmcsar7lq3ac4njnk92tps6ld07lwmr3xpe8s</t>
+  </si>
+  <si>
+    <t>Hell Punks send 995 INJ</t>
+  </si>
+  <si>
+    <t>Hell Punks send 792,2 INJ</t>
+  </si>
+  <si>
+    <t>inj1mha5sx7vpjthpa4rn8f6l8w4dw2dg3ezwr23tc</t>
+  </si>
+  <si>
+    <t>Hell Punks send 357 INJ</t>
+  </si>
+  <si>
+    <t>inj10kklc8ca95yzfujap8puf8pq9fpuv3uhfg74vu</t>
+  </si>
+  <si>
+    <t>Hell Punks send 219 INJ</t>
+  </si>
+  <si>
+    <t>inj1j2tege3y3gy8sw9cfrwjhmk8l3zv9r3n6qs9cg</t>
+  </si>
+  <si>
+    <t>Hell Punks send 1049 INJ</t>
+  </si>
+  <si>
+    <t>inj1vran9mtqzwx7afgfh3q52lgdusgen20enp5v5p</t>
+  </si>
+  <si>
+    <t>Hell Punks send 1026 INJ</t>
   </si>
 </sst>
 </file>
@@ -673,7 +763,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="38.38"/>
-    <col customWidth="1" min="2" max="2" width="16.88"/>
+    <col customWidth="1" min="2" max="2" width="24.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1469,99 +1559,195 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="5"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="5"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="5"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="5"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="5"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="5"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83">
@@ -5003,15 +5189,15 @@
       <c r="D655" s="3"/>
     </row>
     <row r="656">
-      <c r="A656" s="5"/>
-      <c r="B656" s="1"/>
-      <c r="C656" s="1"/>
+      <c r="A656" s="3"/>
+      <c r="B656" s="3"/>
+      <c r="C656" s="3"/>
       <c r="D656" s="3"/>
     </row>
     <row r="657">
-      <c r="A657" s="5"/>
-      <c r="B657" s="1"/>
-      <c r="C657" s="1"/>
+      <c r="A657" s="3"/>
+      <c r="B657" s="3"/>
+      <c r="C657" s="3"/>
       <c r="D657" s="3"/>
     </row>
     <row r="658">
@@ -7060,18 +7246,6 @@
       <c r="C998" s="3"/>
       <c r="D998" s="3"/>
     </row>
-    <row r="999">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="3"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/pedroproject/myapp/scam.xlsx
+++ b/pedroproject/myapp/scam.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="191">
   <si>
     <t>Injective Addresses</t>
   </si>
@@ -64,433 +64,526 @@
     <t>Smith</t>
   </si>
   <si>
+    <t>inj1fgtfttj0r30r6zjt0zrlg7msn40eg5engcq679</t>
+  </si>
+  <si>
+    <t>Goblin Royale</t>
+  </si>
+  <si>
+    <t>inj1rq2mpswjgvvu4359desy2mdwuunyvcv9vepukz</t>
+  </si>
+  <si>
+    <t>Inj Hearts</t>
+  </si>
+  <si>
+    <t>inj1fy4yuqg04rn208l5uqn8l602wf2ma4w50p22dq</t>
+  </si>
+  <si>
+    <t>Injective Wolf</t>
+  </si>
+  <si>
+    <t>inj1pang7crnhek2m4xhrfeluk5pfwrcsukkknm9p6</t>
+  </si>
+  <si>
+    <t>Wolf Gang</t>
+  </si>
+  <si>
+    <t>inj1tpuntlt3kue3evr6uq5xw0xn66kmqhkj4rfv7x</t>
+  </si>
+  <si>
+    <t>Injeggtive</t>
+  </si>
+  <si>
+    <t>inj1p3uzszrdp9x3cg9mtstvv7hwhr5ajmara88u2h</t>
+  </si>
+  <si>
+    <t>Plague Doctor</t>
+  </si>
+  <si>
+    <t>inj1unvyfhqcqcze2u9fj9e4mxgng5vy43gcs597jh</t>
+  </si>
+  <si>
+    <t>Bots</t>
+  </si>
+  <si>
+    <t>inj1qgs7zcv8u3kn7nmu9t6a2480hycw48ksvw5lyt</t>
+  </si>
+  <si>
+    <t>Injective Ash</t>
+  </si>
+  <si>
+    <t>inj1ctvuxe9rhagj6v9e2ekvve9k3hh9dsmgjflfmx</t>
+  </si>
+  <si>
+    <t>Injective Simps</t>
+  </si>
+  <si>
+    <t>inj1292numtyr5g3mhn74g2gfdw8hzkly35k52l6k0</t>
+  </si>
+  <si>
+    <t>Injective Turtle DAO</t>
+  </si>
+  <si>
+    <t>inj1pesccff872zhtu69sa07fuld3kjcd6c4tpdqhz</t>
+  </si>
+  <si>
+    <t>Alright Angels</t>
+  </si>
+  <si>
+    <t>inj12cxy7yj4xg6lg5jy4vd82l25sy7yvqnftq2f46</t>
+  </si>
+  <si>
+    <t>Injective Anime</t>
+  </si>
+  <si>
+    <t>inj1scnwp55aua2l5gg2hnawaemyvx8m8sat52lewl</t>
+  </si>
+  <si>
+    <t>Dreadlords</t>
+  </si>
+  <si>
+    <t>inj1zn8qlkjautjt3mvr7xwuvpe6eddqt5w3mak5s7</t>
+  </si>
+  <si>
+    <t>Baby Degenmonkeez</t>
+  </si>
+  <si>
+    <t>inj19ly7x8mrk5wtaq6ya02qt4zjpxj750ws25m0my</t>
+  </si>
+  <si>
+    <t>Skills Bananas</t>
+  </si>
+  <si>
+    <t>inj12lhhu0hpszdq5wmt630wcspdxyewz3x2m04khh</t>
+  </si>
+  <si>
+    <t>Injective Clubz</t>
+  </si>
+  <si>
+    <t>inj1lel3r49rpwqsulqkm6mr28zusltfms946y3u54</t>
+  </si>
+  <si>
+    <t>Injective Skeletons</t>
+  </si>
+  <si>
+    <t>inj1elmjgyz4t5kc8rmp47u7wf58tmafy6hjh39jqw</t>
+  </si>
+  <si>
+    <t>Bad Ninja</t>
+  </si>
+  <si>
+    <t>inj1450s308qaw6v057krgr37tmmsl3cs3pkw0cxqn</t>
+  </si>
+  <si>
+    <t>Injective Swords</t>
+  </si>
+  <si>
+    <t>inj1wevl9h328r8dn3w89r2uh5hrsnxnmssq3s7u3p</t>
+  </si>
+  <si>
+    <t>Injective Cybers</t>
+  </si>
+  <si>
+    <t>inj1csjpkan0jtt8k587gtlqtcxzpcdfntqex372m7</t>
+  </si>
+  <si>
+    <t>NinjaVerse</t>
+  </si>
+  <si>
+    <t>inj1pwyd3alw4xtjhu49phasshtum53w6ct4glgtk9</t>
+  </si>
+  <si>
+    <t>Injective Ronin</t>
+  </si>
+  <si>
+    <t>inj1jjur380gucgns04nmykm9rhe5mrd5r20ju47k5</t>
+  </si>
+  <si>
+    <t>Nekos</t>
+  </si>
+  <si>
+    <t>inj1z7wkcakdkacd9m2xdret5v4ktx760hfugn007z</t>
+  </si>
+  <si>
+    <t>Apecitive</t>
+  </si>
+  <si>
+    <t>inj1jzajlv3tcnzc8gshgg3zs5rt8z2ynx603t42cq</t>
+  </si>
+  <si>
+    <t>Injective Boys</t>
+  </si>
+  <si>
+    <t>inj180nkeddvrhg24u9p72e44uj7sfeg68a4jnn725</t>
+  </si>
+  <si>
+    <t>Injective Kongs</t>
+  </si>
+  <si>
+    <t>inj1ehesxev2w8ymzguha5nhz2ekd045pfnv0ntrtt</t>
+  </si>
+  <si>
+    <t>Injmarket</t>
+  </si>
+  <si>
+    <t>inj1g5xv20j9yt3cx0xshcsvyqju2rdlpurcup7afz</t>
+  </si>
+  <si>
+    <t>Dweed</t>
+  </si>
+  <si>
+    <t>inj1yjulgwdahfqwhtmslf28cgyejefqadr7se05nd</t>
+  </si>
+  <si>
+    <t>Men In Black</t>
+  </si>
+  <si>
+    <t>inj12cx2wl63e5jkqck2ss8dhyj3pw8rg3yfnmm3ux</t>
+  </si>
+  <si>
+    <t>INJ PIXEL DOGs</t>
+  </si>
+  <si>
+    <t>inj1lc3qmm5clrf92nharq8rcq9mrw9wjs2r0z9ckf</t>
+  </si>
+  <si>
+    <t>Alpha Bulls</t>
+  </si>
+  <si>
+    <t>inj1s643urylsl9xd40f93p07f8w3nlve2vnwnpq6z</t>
+  </si>
+  <si>
+    <t>The Nextlight</t>
+  </si>
+  <si>
+    <t>inj1jt3s4rykefjvtjz9huc5d6fw9088z8t0pdukez</t>
+  </si>
+  <si>
+    <t>Splendor</t>
+  </si>
+  <si>
+    <t>inj18y0uahz4dn9enj34gtgj32ws0ejwcm8wd3gjt8</t>
+  </si>
+  <si>
+    <t>Injective Apes</t>
+  </si>
+  <si>
+    <t>inj1fh92xcg28rat7apzhw5aw8x4x83wrprq4sp3tj</t>
+  </si>
+  <si>
+    <t>Injective Ghosts</t>
+  </si>
+  <si>
+    <t>inj16c9jhnanl9cqk7y8tkvw48paky2pnx5z75537a</t>
+  </si>
+  <si>
+    <t>The Vanguards</t>
+  </si>
+  <si>
+    <t>inj1nyvxc73z8d8kplh95gxyn6sqzdmwqkjq6t7wfq</t>
+  </si>
+  <si>
+    <t>Discordels</t>
+  </si>
+  <si>
+    <t>inj1wu70x9nmerzayens06aeypjyf06hezx3aw7c3r</t>
+  </si>
+  <si>
+    <t>Catalyst</t>
+  </si>
+  <si>
+    <t>inj1naqllcuz0hse4nak3p4fy8r3a38fcgg754qv7u</t>
+  </si>
+  <si>
+    <t>The Snails</t>
+  </si>
+  <si>
+    <t>inj1g86wkwgrk5s9wlpjxtxksa0u2jetvk88cperv4</t>
+  </si>
+  <si>
+    <t>.monkes</t>
+  </si>
+  <si>
+    <t>inj1ludcul2uqzam6am6zqs8gv8a0z8rgsk25quv2n</t>
+  </si>
+  <si>
+    <t>vOOmp</t>
+  </si>
+  <si>
+    <t>inj1alxew5w08aa4yhc66p8xggapwu8yu59aw9uld2</t>
+  </si>
+  <si>
+    <t>SolsticeNFT</t>
+  </si>
+  <si>
+    <t>inj1jwlncuu676t3qfjdlcwsdgx0gg6jpa8snes4xt</t>
+  </si>
+  <si>
+    <t>Pixlkidz</t>
+  </si>
+  <si>
+    <t>inj1nmawgnsjlj5jm559264dpvkmuys9v0ug65lxwa</t>
+  </si>
+  <si>
+    <t>Doggos</t>
+  </si>
+  <si>
+    <t>inj1fl84x4yzqqjmnu8nxe33k398g9zkav569mjeh5</t>
+  </si>
+  <si>
+    <t>LuckyLamas</t>
+  </si>
+  <si>
+    <t>inj18jf3ls8v98374u8eey573jywm2h0acvm964t67</t>
+  </si>
+  <si>
+    <t>Injective Vandals</t>
+  </si>
+  <si>
+    <t>inj1f23mkl2cm89awksaln2n50khrx4xh39djlzyjn</t>
+  </si>
+  <si>
+    <t>Moody</t>
+  </si>
+  <si>
+    <t>inj18ygz3dyg9uyhtm7ay9gqs9chdfxejslgr70u6m</t>
+  </si>
+  <si>
+    <t>Injective Beanz</t>
+  </si>
+  <si>
+    <t>inj17fsdj3ng6zn7fw40q7nd0ath2qmnwl6t9fjuaw</t>
+  </si>
+  <si>
+    <t>ShowOffs</t>
+  </si>
+  <si>
+    <t>inj186aktj4pv9a5pw5905z54x7hme97mj8px9prl6</t>
+  </si>
+  <si>
+    <t>orBits</t>
+  </si>
+  <si>
+    <t>inj1yvt3rmm4tltmtfd9x0lqga9nta4azn27lpdgm4</t>
+  </si>
+  <si>
+    <t>Venom Gods</t>
+  </si>
+  <si>
+    <t>inj1anhlu4dzpqsajufy3lw5wqfg53fpyqsq57qv7m</t>
+  </si>
+  <si>
+    <t>Injas</t>
+  </si>
+  <si>
+    <t>inj13023egz72j6l04hkvprqeapgkt364hznk65cgq</t>
+  </si>
+  <si>
+    <t>Wizard DAO</t>
+  </si>
+  <si>
+    <t>inj1gdsp3gnjaw0dwrkhfm28nnyt9hcjjven87axyw</t>
+  </si>
+  <si>
+    <t>Little bits</t>
+  </si>
+  <si>
+    <t>inj1ldg9h5ssjcse46a8uh2lgjn9lp3v8n5w9gft8k</t>
+  </si>
+  <si>
+    <t>PixelWhite</t>
+  </si>
+  <si>
+    <t>inj1p74hp4ph0nssfxgkgel7h786lnjn3sat57ycj6</t>
+  </si>
+  <si>
+    <t>Injectrix</t>
+  </si>
+  <si>
+    <t>City Token</t>
+  </si>
+  <si>
+    <t>inj1emmcqw8yerur57sxfam7086thd08r5c4372afg</t>
+  </si>
+  <si>
+    <t>Takeda send 1191 INJ</t>
+  </si>
+  <si>
+    <t>inj13r4gq9yvdcrmfqhcsp4t4knupm3tkkzucx5v4n</t>
+  </si>
+  <si>
+    <t>Takeda send 980 INJ</t>
+  </si>
+  <si>
+    <t>Takeda send 841 INJ</t>
+  </si>
+  <si>
+    <t>inj1dam75drlqmg2hll0pt37005dlc3a5t9dqsme8y</t>
+  </si>
+  <si>
+    <t>Takeda Contract</t>
+  </si>
+  <si>
+    <t>inj1vxneyzm3zpl6jddflxvdpwf45k7u4yts843kdk</t>
+  </si>
+  <si>
+    <t>Injective Kings send 1458 INJ</t>
+  </si>
+  <si>
+    <t>inj1rs8q59zdztxzt4wq64848pnwt7tdes5kklrlap</t>
+  </si>
+  <si>
+    <t>Send 327 INJ to Injective Kings</t>
+  </si>
+  <si>
+    <t>inj13efkuxlwcr75lwrjel6asa6h66cq0dfz9lm6xm</t>
+  </si>
+  <si>
+    <t>Injective Kings send 278 INJ</t>
+  </si>
+  <si>
+    <t>inj1x26aln79hxrfm8c6v00208wlumrc0l6qtrtn8y</t>
+  </si>
+  <si>
+    <t>Injective Kings send 338 INJ</t>
+  </si>
+  <si>
+    <t>inj15ca3hjtzrlpjv6uhpd8dq0mkw0ky0955qv5f5v</t>
+  </si>
+  <si>
+    <t>Send 100 INJ to Yakuza</t>
+  </si>
+  <si>
+    <t>inj19e7vhagfux7zjpsxg306pan04nl5ynfenmrwhs</t>
+  </si>
+  <si>
+    <t>Hell Punks send 134 INJ</t>
+  </si>
+  <si>
+    <t>inj1jcmcsar7lq3ac4njnk92tps6ld07lwmr3xpe8s</t>
+  </si>
+  <si>
+    <t>Hell Punks send 995 INJ</t>
+  </si>
+  <si>
+    <t>Hell Punks send 792,2 INJ</t>
+  </si>
+  <si>
+    <t>inj1mha5sx7vpjthpa4rn8f6l8w4dw2dg3ezwr23tc</t>
+  </si>
+  <si>
+    <t>Hell Punks send 357 INJ</t>
+  </si>
+  <si>
+    <t>inj10kklc8ca95yzfujap8puf8pq9fpuv3uhfg74vu</t>
+  </si>
+  <si>
+    <t>Hell Punks send 219 INJ</t>
+  </si>
+  <si>
+    <t>inj1j2tege3y3gy8sw9cfrwjhmk8l3zv9r3n6qs9cg</t>
+  </si>
+  <si>
+    <t>Hell Punks send 1049 INJ</t>
+  </si>
+  <si>
+    <t>inj1vran9mtqzwx7afgfh3q52lgdusgen20enp5v5p</t>
+  </si>
+  <si>
+    <t>Hell Punks send 1026 INJ</t>
+  </si>
+  <si>
+    <t>inj18xqh645pe6nal7nza3mst34rjcesyunqdt3hfl</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 100 INJ</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 130 INJ</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 44 INJ</t>
+  </si>
+  <si>
+    <t>inj1r5pxuhg6nz5puchgm8gx63whwn7jx0y0zsqp9w</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 235 INJ</t>
+  </si>
+  <si>
+    <t>inj13uwd47ned7vv3uzuj0g8xhaggvnhe6chslvzxk</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 35 INJ</t>
+  </si>
+  <si>
+    <t>inj1awh69rrqq7jw8pwd7d4s69u9uetk9ykm8cmq6e</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 59 INJ</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 41 INJ</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 149 INJ</t>
+  </si>
+  <si>
+    <t>inj1p66hq3csfge0pgtnzfz5p5hztsnvuhfrd39cct</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 50 INJ</t>
+  </si>
+  <si>
+    <t>inj1mu5xe3222yu4wng3yyg7r0rudl0gay9vwhwj4h</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 15 INJ</t>
+  </si>
+  <si>
+    <t>inj1ezzxs963cspnh33rq5x05y29qycwjwdtl7r9yw</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 225 INJ</t>
+  </si>
+  <si>
+    <t>Injective Frogs send 11 INJ</t>
+  </si>
+  <si>
+    <t>Smith send 8 INJ</t>
+  </si>
+  <si>
+    <t>inj1eflvzgm7ay5475pngr7z6x99enq38f946e244w</t>
+  </si>
+  <si>
+    <t>Smith send 7 INJ</t>
+  </si>
+  <si>
     <t>inj19syt7zhn4ytvf7xtpw8wml558hz5hh5yjjrszn</t>
   </si>
   <si>
-    <t>Goblin Royale</t>
-  </si>
-  <si>
-    <t>inj1rq2mpswjgvvu4359desy2mdwuunyvcv9vepukz</t>
-  </si>
-  <si>
-    <t>Inj Hearts</t>
-  </si>
-  <si>
-    <t>inj1fy4yuqg04rn208l5uqn8l602wf2ma4w50p22dq</t>
-  </si>
-  <si>
-    <t>Injective Wolf</t>
-  </si>
-  <si>
-    <t>inj1pang7crnhek2m4xhrfeluk5pfwrcsukkknm9p6</t>
-  </si>
-  <si>
-    <t>Wolf Gang</t>
-  </si>
-  <si>
-    <t>inj1tpuntlt3kue3evr6uq5xw0xn66kmqhkj4rfv7x</t>
-  </si>
-  <si>
-    <t>Injeggtive</t>
-  </si>
-  <si>
-    <t>inj1p3uzszrdp9x3cg9mtstvv7hwhr5ajmara88u2h</t>
-  </si>
-  <si>
-    <t>Plague Doctor</t>
-  </si>
-  <si>
-    <t>inj1unvyfhqcqcze2u9fj9e4mxgng5vy43gcs597jh</t>
-  </si>
-  <si>
-    <t>Bots</t>
-  </si>
-  <si>
-    <t>inj1qgs7zcv8u3kn7nmu9t6a2480hycw48ksvw5lyt</t>
-  </si>
-  <si>
-    <t>Injective Ash</t>
-  </si>
-  <si>
-    <t>inj1ctvuxe9rhagj6v9e2ekvve9k3hh9dsmgjflfmx</t>
-  </si>
-  <si>
-    <t>Injective Simps</t>
-  </si>
-  <si>
-    <t>inj1292numtyr5g3mhn74g2gfdw8hzkly35k52l6k0</t>
-  </si>
-  <si>
-    <t>Injective Turtle DAO</t>
-  </si>
-  <si>
-    <t>inj1pesccff872zhtu69sa07fuld3kjcd6c4tpdqhz</t>
-  </si>
-  <si>
-    <t>Alright Angels</t>
-  </si>
-  <si>
-    <t>inj12cxy7yj4xg6lg5jy4vd82l25sy7yvqnftq2f46</t>
-  </si>
-  <si>
-    <t>Injective Anime</t>
-  </si>
-  <si>
-    <t>inj1scnwp55aua2l5gg2hnawaemyvx8m8sat52lewl</t>
-  </si>
-  <si>
-    <t>Dreadlords</t>
-  </si>
-  <si>
-    <t>inj1zn8qlkjautjt3mvr7xwuvpe6eddqt5w3mak5s7</t>
-  </si>
-  <si>
-    <t>Baby Degenmonkeez</t>
-  </si>
-  <si>
-    <t>inj19ly7x8mrk5wtaq6ya02qt4zjpxj750ws25m0my</t>
-  </si>
-  <si>
-    <t>Skills Bananas</t>
-  </si>
-  <si>
-    <t>inj12lhhu0hpszdq5wmt630wcspdxyewz3x2m04khh</t>
-  </si>
-  <si>
-    <t>Injective Clubz</t>
-  </si>
-  <si>
-    <t>inj1lel3r49rpwqsulqkm6mr28zusltfms946y3u54</t>
-  </si>
-  <si>
-    <t>Injective Skeletons</t>
-  </si>
-  <si>
-    <t>inj1elmjgyz4t5kc8rmp47u7wf58tmafy6hjh39jqw</t>
-  </si>
-  <si>
-    <t>Bad Ninja</t>
-  </si>
-  <si>
-    <t>inj1450s308qaw6v057krgr37tmmsl3cs3pkw0cxqn</t>
-  </si>
-  <si>
-    <t>Injective Swords</t>
-  </si>
-  <si>
-    <t>inj1wevl9h328r8dn3w89r2uh5hrsnxnmssq3s7u3p</t>
-  </si>
-  <si>
-    <t>Injective Cybers</t>
-  </si>
-  <si>
-    <t>inj1csjpkan0jtt8k587gtlqtcxzpcdfntqex372m7</t>
-  </si>
-  <si>
-    <t>NinjaVerse</t>
-  </si>
-  <si>
-    <t>inj1pwyd3alw4xtjhu49phasshtum53w6ct4glgtk9</t>
-  </si>
-  <si>
-    <t>Injective Ronin</t>
-  </si>
-  <si>
-    <t>inj1jjur380gucgns04nmykm9rhe5mrd5r20ju47k5</t>
-  </si>
-  <si>
-    <t>Nekos</t>
-  </si>
-  <si>
-    <t>inj1z7wkcakdkacd9m2xdret5v4ktx760hfugn007z</t>
-  </si>
-  <si>
-    <t>Apecitive</t>
-  </si>
-  <si>
-    <t>inj1jzajlv3tcnzc8gshgg3zs5rt8z2ynx603t42cq</t>
-  </si>
-  <si>
-    <t>Injective Boys</t>
-  </si>
-  <si>
-    <t>inj180nkeddvrhg24u9p72e44uj7sfeg68a4jnn725</t>
-  </si>
-  <si>
-    <t>Injective Kongs</t>
-  </si>
-  <si>
-    <t>inj1ehesxev2w8ymzguha5nhz2ekd045pfnv0ntrtt</t>
-  </si>
-  <si>
-    <t>Injmarket</t>
-  </si>
-  <si>
-    <t>inj1g5xv20j9yt3cx0xshcsvyqju2rdlpurcup7afz</t>
-  </si>
-  <si>
-    <t>Dweed</t>
-  </si>
-  <si>
-    <t>inj1yjulgwdahfqwhtmslf28cgyejefqadr7se05nd</t>
-  </si>
-  <si>
-    <t>Men In Black</t>
-  </si>
-  <si>
-    <t>inj12cx2wl63e5jkqck2ss8dhyj3pw8rg3yfnmm3ux</t>
-  </si>
-  <si>
-    <t>INJ PIXEL DOGs</t>
-  </si>
-  <si>
-    <t>inj1lc3qmm5clrf92nharq8rcq9mrw9wjs2r0z9ckf</t>
-  </si>
-  <si>
-    <t>Alpha Bulls</t>
-  </si>
-  <si>
-    <t>inj1s643urylsl9xd40f93p07f8w3nlve2vnwnpq6z</t>
-  </si>
-  <si>
-    <t>The Nextlight</t>
-  </si>
-  <si>
-    <t>inj1jt3s4rykefjvtjz9huc5d6fw9088z8t0pdukez</t>
-  </si>
-  <si>
-    <t>Splendor</t>
-  </si>
-  <si>
-    <t>inj18y0uahz4dn9enj34gtgj32ws0ejwcm8wd3gjt8</t>
-  </si>
-  <si>
-    <t>Injective Apes</t>
-  </si>
-  <si>
-    <t>inj1fh92xcg28rat7apzhw5aw8x4x83wrprq4sp3tj</t>
-  </si>
-  <si>
-    <t>Injective Ghosts</t>
-  </si>
-  <si>
-    <t>inj16c9jhnanl9cqk7y8tkvw48paky2pnx5z75537a</t>
-  </si>
-  <si>
-    <t>The Vanguards</t>
-  </si>
-  <si>
-    <t>inj1nyvxc73z8d8kplh95gxyn6sqzdmwqkjq6t7wfq</t>
-  </si>
-  <si>
-    <t>Discordels</t>
-  </si>
-  <si>
-    <t>inj1wu70x9nmerzayens06aeypjyf06hezx3aw7c3r</t>
-  </si>
-  <si>
-    <t>Catalyst</t>
-  </si>
-  <si>
-    <t>inj1naqllcuz0hse4nak3p4fy8r3a38fcgg754qv7u</t>
-  </si>
-  <si>
-    <t>The Snails</t>
-  </si>
-  <si>
-    <t>inj1g86wkwgrk5s9wlpjxtxksa0u2jetvk88cperv4</t>
-  </si>
-  <si>
-    <t>.monkes</t>
-  </si>
-  <si>
-    <t>inj1ludcul2uqzam6am6zqs8gv8a0z8rgsk25quv2n</t>
-  </si>
-  <si>
-    <t>vOOmp</t>
-  </si>
-  <si>
-    <t>inj1alxew5w08aa4yhc66p8xggapwu8yu59aw9uld2</t>
-  </si>
-  <si>
-    <t>SolsticeNFT</t>
-  </si>
-  <si>
-    <t>inj1jwlncuu676t3qfjdlcwsdgx0gg6jpa8snes4xt</t>
-  </si>
-  <si>
-    <t>Pixlkidz</t>
-  </si>
-  <si>
-    <t>inj1nmawgnsjlj5jm559264dpvkmuys9v0ug65lxwa</t>
-  </si>
-  <si>
-    <t>Doggos</t>
-  </si>
-  <si>
-    <t>inj1fl84x4yzqqjmnu8nxe33k398g9zkav569mjeh5</t>
-  </si>
-  <si>
-    <t>LuckyLamas</t>
-  </si>
-  <si>
-    <t>inj18jf3ls8v98374u8eey573jywm2h0acvm964t67</t>
-  </si>
-  <si>
-    <t>Injective Vandals</t>
-  </si>
-  <si>
-    <t>inj1f23mkl2cm89awksaln2n50khrx4xh39djlzyjn</t>
-  </si>
-  <si>
-    <t>Moody</t>
-  </si>
-  <si>
-    <t>inj18ygz3dyg9uyhtm7ay9gqs9chdfxejslgr70u6m</t>
-  </si>
-  <si>
-    <t>Injective Beanz</t>
-  </si>
-  <si>
-    <t>inj17fsdj3ng6zn7fw40q7nd0ath2qmnwl6t9fjuaw</t>
-  </si>
-  <si>
-    <t>ShowOffs</t>
-  </si>
-  <si>
-    <t>inj186aktj4pv9a5pw5905z54x7hme97mj8px9prl6</t>
-  </si>
-  <si>
-    <t>orBits</t>
-  </si>
-  <si>
-    <t>inj1yvt3rmm4tltmtfd9x0lqga9nta4azn27lpdgm4</t>
-  </si>
-  <si>
-    <t>Venom Gods</t>
-  </si>
-  <si>
-    <t>inj1anhlu4dzpqsajufy3lw5wqfg53fpyqsq57qv7m</t>
-  </si>
-  <si>
-    <t>Injas</t>
-  </si>
-  <si>
-    <t>inj13023egz72j6l04hkvprqeapgkt364hznk65cgq</t>
-  </si>
-  <si>
-    <t>Wizard DAO</t>
-  </si>
-  <si>
-    <t>inj1gdsp3gnjaw0dwrkhfm28nnyt9hcjjven87axyw</t>
-  </si>
-  <si>
-    <t>Little bits</t>
-  </si>
-  <si>
-    <t>inj1ldg9h5ssjcse46a8uh2lgjn9lp3v8n5w9gft8k</t>
-  </si>
-  <si>
-    <t>PixelWhite</t>
-  </si>
-  <si>
-    <t>inj1p74hp4ph0nssfxgkgel7h786lnjn3sat57ycj6</t>
-  </si>
-  <si>
-    <t>Injectrix</t>
-  </si>
-  <si>
-    <t>City Token</t>
-  </si>
-  <si>
-    <t>inj1emmcqw8yerur57sxfam7086thd08r5c4372afg</t>
-  </si>
-  <si>
-    <t>Takeda send 1191 INJ</t>
-  </si>
-  <si>
-    <t>inj13r4gq9yvdcrmfqhcsp4t4knupm3tkkzucx5v4n</t>
-  </si>
-  <si>
-    <t>Takeda send 980 INJ</t>
-  </si>
-  <si>
-    <t>Takeda send 841 INJ</t>
-  </si>
-  <si>
-    <t>inj1dam75drlqmg2hll0pt37005dlc3a5t9dqsme8y</t>
-  </si>
-  <si>
-    <t>Takeda Contract</t>
-  </si>
-  <si>
-    <t>inj1vxneyzm3zpl6jddflxvdpwf45k7u4yts843kdk</t>
-  </si>
-  <si>
-    <t>Injective Kings send 1458 INJ</t>
-  </si>
-  <si>
-    <t>inj1rs8q59zdztxzt4wq64848pnwt7tdes5kklrlap</t>
-  </si>
-  <si>
-    <t>Send 327 INJ to Injective Kings</t>
-  </si>
-  <si>
-    <t>inj13efkuxlwcr75lwrjel6asa6h66cq0dfz9lm6xm</t>
-  </si>
-  <si>
-    <t>Injective Kings send 278 INJ</t>
-  </si>
-  <si>
-    <t>inj1x26aln79hxrfm8c6v00208wlumrc0l6qtrtn8y</t>
-  </si>
-  <si>
-    <t>Injective Kings send 338 INJ</t>
-  </si>
-  <si>
-    <t>inj15ca3hjtzrlpjv6uhpd8dq0mkw0ky0955qv5f5v</t>
-  </si>
-  <si>
-    <t>Send 100 INJ to Yakuza</t>
-  </si>
-  <si>
-    <t>inj19e7vhagfux7zjpsxg306pan04nl5ynfenmrwhs</t>
-  </si>
-  <si>
-    <t>Hell Punks send 134 INJ</t>
-  </si>
-  <si>
-    <t>inj1jcmcsar7lq3ac4njnk92tps6ld07lwmr3xpe8s</t>
-  </si>
-  <si>
-    <t>Hell Punks send 995 INJ</t>
-  </si>
-  <si>
-    <t>Hell Punks send 792,2 INJ</t>
-  </si>
-  <si>
-    <t>inj1mha5sx7vpjthpa4rn8f6l8w4dw2dg3ezwr23tc</t>
-  </si>
-  <si>
-    <t>Hell Punks send 357 INJ</t>
-  </si>
-  <si>
-    <t>inj10kklc8ca95yzfujap8puf8pq9fpuv3uhfg74vu</t>
-  </si>
-  <si>
-    <t>Hell Punks send 219 INJ</t>
-  </si>
-  <si>
-    <t>inj1j2tege3y3gy8sw9cfrwjhmk8l3zv9r3n6qs9cg</t>
-  </si>
-  <si>
-    <t>Hell Punks send 1049 INJ</t>
-  </si>
-  <si>
-    <t>inj1vran9mtqzwx7afgfh3q52lgdusgen20enp5v5p</t>
-  </si>
-  <si>
-    <t>Hell Punks send 1026 INJ</t>
+    <t>Goblin Royale Contract</t>
+  </si>
+  <si>
+    <t>inj1sq354z0s4ea5uunpxtxh76wmquhny2myvnluw0</t>
+  </si>
+  <si>
+    <t>Send 25 INJ to Goblin Royale</t>
+  </si>
+  <si>
+    <t>Goblin Royale send 22 INJ</t>
+  </si>
+  <si>
+    <t>inj16e8k29gmaaqwfk0s47m9rz93t4jj6rusy3xfuw</t>
+  </si>
+  <si>
+    <t>Goblin Royale send 432 INJ</t>
+  </si>
+  <si>
+    <t>Inj Hearts send 17 INJ</t>
+  </si>
+  <si>
+    <t>inj1p84tyw4vng8hgwc5r99t2jgglg3x4gkq7a4zt9</t>
   </si>
 </sst>
 </file>
@@ -1751,123 +1844,243 @@
       <c r="D82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="5"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="5"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="5"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="5"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="5"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="5"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="5"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="5"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="5"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="5"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="A93" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="5"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="A94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="5"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="A95" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="5"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="5"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A97" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="5"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="A98" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="5"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="A100" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="5"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="A101" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="A102" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45718.0</v>
+      </c>
       <c r="D102" s="3"/>
     </row>
     <row r="103">

--- a/pedroproject/myapp/scam.xlsx
+++ b/pedroproject/myapp/scam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6ADCA1-4ED5-4BF8-B3CF-46C60827397D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488A6CB-C91E-418B-A2B7-9D432938DAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{55ED1522-B1A8-45CC-B8D5-06F34D2809E8}"/>
   </bookViews>
@@ -476,9 +476,6 @@
     <t>inj1jzajlv3tcnzc8gshgg3zs5rt8z2ynx603t42cq</t>
   </si>
   <si>
-    <t>INJ Girls /Inj Boys</t>
-  </si>
-  <si>
     <t>3.10 INJ</t>
   </si>
   <si>
@@ -1268,9 +1265,6 @@
     <t>2024-01-23</t>
   </si>
   <si>
-    <t>Injective Frogs/ Injective Frogs Ninjas</t>
-  </si>
-  <si>
     <t>Injective Frogs/Injective Frogs Ninjas send</t>
   </si>
   <si>
@@ -2070,6 +2064,12 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>INJ Girls/Inj Boys</t>
+  </si>
+  <si>
+    <t>Injective Frogs/Injective Frogs Ninjas</t>
   </si>
 </sst>
 </file>
@@ -2512,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB436690-8EB1-49B8-BCD8-D799179898FA}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2536,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -3433,10 +3433,10 @@
         <v>45216</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>676</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>0</v>
@@ -3447,19 +3447,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -3467,19 +3467,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="E49" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -3507,19 +3507,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>146</v>
+        <v>676</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -3527,19 +3527,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="E51" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -3547,19 +3547,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="C52" s="7" t="s">
-        <v>146</v>
+        <v>676</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -3567,19 +3567,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="E53" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -3587,19 +3587,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="E54" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
@@ -3607,19 +3607,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="E55" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -3627,19 +3627,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>146</v>
+        <v>676</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -3647,19 +3647,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>146</v>
+        <v>676</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -3667,19 +3667,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="C58" s="7" t="s">
-        <v>146</v>
+        <v>676</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -3687,16 +3687,16 @@
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>0</v>
@@ -3707,19 +3707,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -3727,19 +3727,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="C61" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -3747,19 +3747,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="E62" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -3787,16 +3787,16 @@
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>0</v>
@@ -3807,19 +3807,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
@@ -3827,19 +3827,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -3847,19 +3847,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="E67" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -3867,19 +3867,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="E68" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
@@ -3887,19 +3887,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="C69" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
@@ -3907,16 +3907,16 @@
     </row>
     <row r="70" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B70" s="3">
         <v>45260</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>0</v>
@@ -3927,19 +3927,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -3947,19 +3947,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>0</v>
@@ -3987,19 +3987,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
@@ -4007,19 +4007,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="C75" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
@@ -4027,19 +4027,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -4047,19 +4047,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
@@ -4067,16 +4067,16 @@
     </row>
     <row r="78" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B78" s="3">
         <v>45268</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>0</v>
@@ -4087,19 +4087,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="F79" s="1">
         <v>1</v>
@@ -4107,19 +4107,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -4127,19 +4127,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="E81" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F81" s="1">
         <v>1</v>
@@ -4147,19 +4147,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="C82" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -4167,19 +4167,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F83" s="1">
         <v>1</v>
@@ -4187,19 +4187,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -4207,19 +4207,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F85" s="1">
         <v>1</v>
@@ -4227,19 +4227,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="C86" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
@@ -4247,16 +4247,16 @@
     </row>
     <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>0</v>
@@ -4267,16 +4267,16 @@
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" s="3">
         <v>45281</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>0</v>
@@ -4287,19 +4287,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="C89" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D89" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -4307,19 +4307,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="E90" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -4327,19 +4327,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -4347,19 +4347,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="E92" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F92" s="1">
         <v>1</v>
@@ -4367,19 +4367,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -4387,19 +4387,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="E94" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F94" s="1">
         <v>1</v>
@@ -4407,19 +4407,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D95" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="F95" s="1">
         <v>1</v>
@@ -4427,16 +4427,16 @@
     </row>
     <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>0</v>
@@ -4447,19 +4447,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="E97" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F97" s="1">
         <v>1</v>
@@ -4467,19 +4467,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D98" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="F98" s="1">
         <v>1</v>
@@ -4487,19 +4487,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="E99" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
@@ -4507,19 +4507,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F100" s="1">
         <v>1</v>
@@ -4527,19 +4527,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
@@ -4547,16 +4547,16 @@
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>0</v>
@@ -4567,19 +4567,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="C103" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -4587,19 +4587,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D104" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="F104" s="1">
         <v>1</v>
@@ -4607,19 +4607,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F105" s="1">
         <v>1</v>
@@ -4627,19 +4627,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="E106" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
@@ -4647,19 +4647,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="E107" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
@@ -4667,16 +4667,16 @@
     </row>
     <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B108" s="3">
         <v>45286</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>0</v>
@@ -4687,19 +4687,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="C109" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="E109" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
@@ -4707,19 +4707,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="C110" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -4727,19 +4727,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="E111" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4747,16 +4747,16 @@
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="D112" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>0</v>
@@ -4767,19 +4767,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="C113" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -4787,19 +4787,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
@@ -4807,19 +4807,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -4827,16 +4827,16 @@
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>0</v>
@@ -4847,19 +4847,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
@@ -4867,19 +4867,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C118" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
@@ -4887,19 +4887,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F119" s="1">
         <v>1</v>
@@ -4907,19 +4907,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C120" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
@@ -4927,16 +4927,16 @@
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>0</v>
@@ -4947,19 +4947,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="E122" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F122" s="1">
         <v>1</v>
@@ -4967,19 +4967,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D123" s="7" t="s">
+      <c r="E123" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -4987,19 +4987,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="E124" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -5007,16 +5007,16 @@
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>0</v>
@@ -5027,16 +5027,16 @@
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B126" s="3">
         <v>45302</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>0</v>
@@ -5047,19 +5047,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="C127" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="E127" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -5067,19 +5067,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="E128" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F128" s="1">
         <v>1</v>
@@ -5087,19 +5087,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="E129" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="F129" s="1">
         <v>1</v>
@@ -5107,19 +5107,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E130" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F130" s="1">
         <v>1</v>
@@ -5127,19 +5127,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="E131" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F131" s="1">
         <v>1</v>
@@ -5147,19 +5147,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="E132" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F132" s="1">
         <v>1</v>
@@ -5167,19 +5167,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="E133" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F133" s="1">
         <v>1</v>
@@ -5187,16 +5187,16 @@
     </row>
     <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B134" s="3">
         <v>45305</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>0</v>
@@ -5207,19 +5207,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -5227,19 +5227,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
@@ -5247,19 +5247,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="E137" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F137" s="1">
         <v>1</v>
@@ -5267,19 +5267,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -5287,19 +5287,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -5307,19 +5307,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -5327,19 +5327,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -5347,19 +5347,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="E142" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>410</v>
+        <v>677</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -5387,16 +5387,16 @@
     </row>
     <row r="144" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B144" s="3">
         <v>45307</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>0</v>
@@ -5407,19 +5407,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E145" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -5427,19 +5427,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F146" s="1">
         <v>1</v>
@@ -5447,19 +5447,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -5467,19 +5467,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -5487,16 +5487,16 @@
     </row>
     <row r="149" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B149" s="3">
         <v>45310</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>0</v>
@@ -5507,16 +5507,16 @@
     </row>
     <row r="150" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B150" s="3">
         <v>45316</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>0</v>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E151" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -5550,16 +5550,16 @@
         <v>58</v>
       </c>
       <c r="B152" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="F152" s="1">
         <v>1</v>
@@ -5567,19 +5567,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -5587,19 +5587,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F154" s="1">
         <v>1</v>
@@ -5607,16 +5607,16 @@
     </row>
     <row r="155" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B155" s="3">
         <v>45311</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>0</v>
@@ -5627,19 +5627,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F156" s="1">
         <v>1</v>
@@ -5647,19 +5647,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F157" s="1">
         <v>1</v>
@@ -5667,19 +5667,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F158" s="1">
         <v>1</v>
@@ -5687,19 +5687,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F159" s="1">
         <v>1</v>
@@ -5707,16 +5707,16 @@
     </row>
     <row r="160" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B160" s="3">
         <v>45313</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>0</v>
@@ -5727,19 +5727,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F161" s="1">
         <v>1</v>
@@ -5747,19 +5747,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="E162" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="F162" s="1">
         <v>1</v>
@@ -5767,19 +5767,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C163" s="7" t="s">
+      <c r="E163" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="F163" s="1">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B164" s="3">
         <v>45344</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>0</v>
@@ -5807,19 +5807,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D165" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C165" s="7" t="s">
+      <c r="E165" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="F165" s="1">
         <v>1</v>
@@ -5827,19 +5827,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C166" s="7" t="s">
+      <c r="E166" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="F166" s="1">
         <v>1</v>
@@ -5847,16 +5847,16 @@
     </row>
     <row r="167" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B167" s="3">
         <v>45359</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>0</v>
@@ -5867,19 +5867,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="E168" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="F168" s="1">
         <v>1</v>
@@ -5887,19 +5887,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="E169" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F169" s="1">
         <v>1</v>
@@ -5907,19 +5907,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="F170" s="1">
         <v>1</v>
@@ -5927,19 +5927,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D171" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="E171" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F171" s="1">
         <v>1</v>
@@ -5947,19 +5947,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F172" s="1">
         <v>1</v>
@@ -5967,19 +5967,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="E173" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F173" s="1">
         <v>1</v>
@@ -5987,19 +5987,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B174" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E174" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="F174" s="1">
         <v>1</v>
@@ -6007,19 +6007,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F175" s="1">
         <v>1</v>
@@ -6027,16 +6027,16 @@
     </row>
     <row r="176" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B176" s="3">
         <v>45358</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>0</v>
@@ -6047,19 +6047,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F177" s="1">
         <v>1</v>
@@ -6067,16 +6067,16 @@
     </row>
     <row r="178" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B178" s="3">
         <v>45366</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>0</v>
@@ -6087,19 +6087,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C179" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E179" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="F179" s="1">
         <v>1</v>
@@ -6107,19 +6107,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E180" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="F180" s="1">
         <v>1</v>
@@ -6127,19 +6127,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C181" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E181" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="F181" s="1">
         <v>1</v>
@@ -6147,16 +6147,16 @@
     </row>
     <row r="182" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B182" s="3">
         <v>45372</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>0</v>
@@ -6167,19 +6167,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="E183" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="F183" s="1">
         <v>1</v>
@@ -6187,13 +6187,13 @@
     </row>
     <row r="184" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B184" s="3">
         <v>45382</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>6</v>
@@ -6207,19 +6207,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="F185" s="1">
         <v>1</v>
@@ -6227,19 +6227,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F186" s="1">
         <v>1</v>
@@ -6247,16 +6247,16 @@
     </row>
     <row r="187" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B187" s="3">
         <v>45386</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>0</v>
@@ -6267,19 +6267,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F188" s="1">
         <v>1</v>
@@ -6287,19 +6287,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F189" s="1">
         <v>1</v>
@@ -6307,19 +6307,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F190" s="1">
         <v>1</v>
@@ -6327,16 +6327,16 @@
     </row>
     <row r="191" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B191" s="3">
         <v>45392</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>0</v>
@@ -6347,19 +6347,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E192" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="F192" s="1">
         <v>1</v>
@@ -6367,19 +6367,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F193" s="1">
         <v>1</v>
@@ -6387,16 +6387,16 @@
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>0</v>
@@ -6407,19 +6407,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F195" s="1">
         <v>1</v>
@@ -6427,19 +6427,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F196" s="1">
         <v>1</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F197" s="1">
         <v>1</v>
@@ -6467,16 +6467,16 @@
     </row>
     <row r="198" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B198" s="3">
         <v>45403</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>0</v>
@@ -6487,19 +6487,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F199" s="1">
         <v>1</v>
@@ -6507,16 +6507,16 @@
     </row>
     <row r="200" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B200" s="3">
         <v>45326</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>0</v>
@@ -6527,19 +6527,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F201" s="1">
         <v>1</v>
@@ -6547,13 +6547,13 @@
     </row>
     <row r="202" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B202" s="3">
         <v>45413</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2" t="s">
@@ -6565,19 +6565,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="E203" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="F203" s="1">
         <v>1</v>
@@ -6585,19 +6585,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B204" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E204" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="F204" s="1">
         <v>1</v>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F205" s="1">
         <v>1</v>
@@ -6625,16 +6625,16 @@
     </row>
     <row r="206" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>0</v>
@@ -6645,19 +6645,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F207" s="1">
         <v>1</v>
@@ -6665,19 +6665,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="E208" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="F208" s="1">
         <v>1</v>
@@ -6685,19 +6685,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F209" s="1">
         <v>1</v>
@@ -6705,19 +6705,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F210" s="1">
         <v>1</v>
@@ -6725,19 +6725,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F211" s="1">
         <v>1</v>
@@ -6745,19 +6745,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F212" s="1">
         <v>1</v>
@@ -6765,19 +6765,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F213" s="1">
         <v>1</v>
@@ -6785,19 +6785,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F214" s="1">
         <v>1</v>
@@ -6805,19 +6805,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F215" s="1">
         <v>1</v>
@@ -6825,19 +6825,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F216" s="1">
         <v>1</v>
@@ -6845,19 +6845,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F217" s="1">
         <v>1</v>
@@ -6865,16 +6865,16 @@
     </row>
     <row r="218" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B218" s="3">
         <v>45422</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>0</v>
@@ -6885,16 +6885,16 @@
     </row>
     <row r="219" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B219" s="3">
         <v>45492</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>0</v>
@@ -6905,19 +6905,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D220" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="E220" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="E220" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="F220" s="1">
         <v>1</v>
@@ -6925,19 +6925,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B221" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E221" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="F221" s="1">
         <v>1</v>
@@ -6945,19 +6945,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F222" s="1">
         <v>1</v>
@@ -6965,19 +6965,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F223" s="1">
         <v>1</v>
@@ -6985,19 +6985,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F224" s="1">
         <v>1</v>
@@ -7005,16 +7005,16 @@
     </row>
     <row r="225" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B225" s="3">
         <v>45580</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>0</v>
@@ -7025,19 +7025,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D226" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="E226" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="F226" s="1">
         <v>1</v>
@@ -7045,19 +7045,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F227" s="1">
         <v>1</v>
@@ -7065,19 +7065,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F228" s="1">
         <v>1</v>
@@ -7085,19 +7085,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F229" s="1">
         <v>1</v>
@@ -7105,19 +7105,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F230" s="1">
         <v>1</v>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F231" s="1">
         <v>1</v>
@@ -7145,19 +7145,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F232" s="1">
         <v>1</v>
@@ -7165,19 +7165,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="B233" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>655</v>
-      </c>
       <c r="E233" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F233" s="1">
         <v>1</v>
@@ -7185,13 +7185,13 @@
     </row>
     <row r="234" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B234" s="3">
         <v>45629</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>141</v>
@@ -7205,19 +7205,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D235" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="E235" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="F235" s="1">
         <v>1</v>
@@ -7225,19 +7225,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F236" s="1">
         <v>1</v>
@@ -7245,19 +7245,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F237" s="1">
         <v>2</v>
@@ -7265,19 +7265,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F238" s="1">
         <v>2</v>
@@ -7285,19 +7285,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F239" s="1">
         <v>2</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>79</v>
@@ -7317,7 +7317,7 @@
         <v>117</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F240" s="1">
         <v>2</v>
@@ -7325,10 +7325,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>79</v>
@@ -7337,7 +7337,7 @@
         <v>117</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F241" s="1">
         <v>2</v>
@@ -7345,10 +7345,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>79</v>
@@ -7357,7 +7357,7 @@
         <v>117</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F242" s="1">
         <v>2</v>

--- a/pedroproject/myapp/scam.xlsx
+++ b/pedroproject/myapp/scam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488A6CB-C91E-418B-A2B7-9D432938DAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD90C1B5-8BFB-4902-8177-AD03BBE37C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{55ED1522-B1A8-45CC-B8D5-06F34D2809E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="676">
   <si>
     <t>Address</t>
   </si>
@@ -1949,13 +1949,7 @@
     <t>349.87 INJ</t>
   </si>
   <si>
-    <t>inj143hpm73wu39mukz74ekcupcthslhg4gk6892dp</t>
-  </si>
-  <si>
     <t>2024-10-17</t>
-  </si>
-  <si>
-    <t>100.00 INJ</t>
   </si>
   <si>
     <t>Off-Titans send</t>
@@ -2510,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB436690-8EB1-49B8-BCD8-D799179898FA}">
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2536,13 +2530,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -3433,7 +3427,7 @@
         <v>45216</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>183</v>
@@ -3453,7 +3447,7 @@
         <v>149</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>150</v>
@@ -3473,7 +3467,7 @@
         <v>153</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>154</v>
@@ -3493,7 +3487,7 @@
         <v>156</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>157</v>
@@ -3513,7 +3507,7 @@
         <v>156</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>31</v>
@@ -3533,7 +3527,7 @@
         <v>161</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>162</v>
@@ -3553,7 +3547,7 @@
         <v>164</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>37</v>
@@ -3573,7 +3567,7 @@
         <v>166</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>167</v>
@@ -3593,7 +3587,7 @@
         <v>172</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>173</v>
@@ -3613,7 +3607,7 @@
         <v>175</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>176</v>
@@ -3633,7 +3627,7 @@
         <v>149</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>169</v>
@@ -3653,7 +3647,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>179</v>
@@ -3673,7 +3667,7 @@
         <v>182</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>31</v>
@@ -5193,7 +5187,7 @@
         <v>45305</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>429</v>
@@ -5213,7 +5207,7 @@
         <v>131</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>411</v>
@@ -5233,7 +5227,7 @@
         <v>413</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>414</v>
@@ -5253,7 +5247,7 @@
         <v>416</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>417</v>
@@ -5273,7 +5267,7 @@
         <v>412</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>419</v>
@@ -5293,7 +5287,7 @@
         <v>413</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>94</v>
@@ -5313,7 +5307,7 @@
         <v>413</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>421</v>
@@ -5333,7 +5327,7 @@
         <v>344</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>422</v>
@@ -5353,7 +5347,7 @@
         <v>424</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>425</v>
@@ -5373,7 +5367,7 @@
         <v>428</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>390</v>
@@ -6516,7 +6510,7 @@
         <v>576</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>0</v>
@@ -7024,20 +7018,20 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="C226" s="5" t="s">
+      <c r="A226" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C226" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="D226" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>640</v>
+      <c r="D226" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="F226" s="1">
         <v>1</v>
@@ -7045,19 +7039,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>642</v>
+        <v>484</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>127</v>
+        <v>643</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F227" s="1">
         <v>1</v>
@@ -7068,16 +7062,16 @@
         <v>644</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>484</v>
+        <v>645</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>645</v>
+        <v>199</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F228" s="1">
         <v>1</v>
@@ -7088,16 +7082,16 @@
         <v>646</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F229" s="1">
         <v>1</v>
@@ -7105,19 +7099,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F230" s="1">
         <v>1</v>
@@ -7125,7 +7119,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>594</v>
@@ -7134,10 +7128,10 @@
         <v>635</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F231" s="1">
         <v>1</v>
@@ -7145,79 +7139,79 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F232" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="B233" s="7" t="s">
+    <row r="233" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C233" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="D233" s="7" t="s">
+      <c r="B233" s="3">
+        <v>45629</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="E233" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="F233" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="2" t="s">
+      <c r="D233" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="B234" s="3">
-        <v>45629</v>
-      </c>
-      <c r="C234" s="2" t="s">
+      <c r="B234" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F234" s="2">
-        <v>0</v>
+      <c r="C234" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B235" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="F235" s="1">
         <v>1</v>
@@ -7225,22 +7219,22 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>602</v>
+        <v>471</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>655</v>
+        <v>3</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>64</v>
+        <v>662</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F236" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -7248,16 +7242,16 @@
         <v>663</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>471</v>
+        <v>664</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>664</v>
+        <v>421</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F237" s="1">
         <v>2</v>
@@ -7265,19 +7259,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>666</v>
+        <v>428</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F238" s="1">
         <v>2</v>
@@ -7285,19 +7279,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B239" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="B239" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="C239" s="7" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>357</v>
+        <v>117</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F239" s="1">
         <v>2</v>
@@ -7305,10 +7299,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>79</v>
@@ -7317,7 +7311,7 @@
         <v>117</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F240" s="1">
         <v>2</v>
@@ -7325,10 +7319,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>79</v>
@@ -7337,31 +7331,14 @@
         <v>117</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F241" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E242" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="F242" s="1">
-        <v>2</v>
-      </c>
+      <c r="E242" s="1"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E243" s="1"/>
@@ -7458,9 +7435,6 @@
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E274" s="1"/>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E275" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pedroproject/myapp/scam.xlsx
+++ b/pedroproject/myapp/scam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156822B-1E00-448A-802B-F39B9AFBF135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176634FC-ABC0-4423-84E1-0B288354E8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="816" windowWidth="30936" windowHeight="16776" xr2:uid="{55ED1522-B1A8-45CC-B8D5-06F34D2809E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{55ED1522-B1A8-45CC-B8D5-06F34D2809E8}"/>
   </bookViews>
   <sheets>
     <sheet name="NFT Scam" sheetId="1" r:id="rId1"/>
@@ -1712,9 +1712,6 @@
     <t>inj1kapj2kuq75l8pv47zxcqnxr857emqxz0rp9xqs</t>
   </si>
   <si>
-    <t>Amount (netto)</t>
-  </si>
-  <si>
     <t>inj1d7tm30zj4dkt95h9m8t2fjpjqlt24aw03246qf</t>
   </si>
   <si>
@@ -3072,6 +3069,9 @@
   </si>
   <si>
     <t>3622.70 INJ</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -3529,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB436690-8EB1-49B8-BCD8-D799179898FA}">
   <dimension ref="A1:F429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection sqref="A1:F429"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>558</v>
+        <v>1011</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>6</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B5" s="10">
         <v>45629</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>534</v>
@@ -3673,7 +3673,7 @@
         <v>532</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>535</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>534</v>
@@ -3733,7 +3733,7 @@
         <v>532</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>535</v>
@@ -3767,7 +3767,7 @@
         <v>542</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>532</v>
@@ -3784,19 +3784,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>532</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -3807,16 +3807,16 @@
         <v>542</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>532</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>532</v>
@@ -3836,7 +3836,7 @@
         <v>94</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>532</v>
@@ -3856,7 +3856,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -3864,19 +3864,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>532</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B18" s="10">
         <v>45579</v>
@@ -3896,7 +3896,7 @@
         <v>533</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B23" s="10">
         <v>45492</v>
@@ -3996,7 +3996,7 @@
         <v>530</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B24" s="3">
         <v>45477</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>0</v>
@@ -4024,19 +4024,19 @@
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -4047,16 +4047,16 @@
         <v>395</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -4064,19 +4064,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -4084,19 +4084,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>594</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -4104,19 +4104,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>597</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -4124,19 +4124,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
@@ -4144,19 +4144,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>601</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -4164,19 +4164,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>603</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
@@ -4184,19 +4184,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>606</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
@@ -4204,19 +4204,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B34" s="10">
         <v>45477</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>583</v>
-      </c>
       <c r="E34" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F34" s="9">
         <v>0</v>
@@ -4224,19 +4224,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B35" s="10">
         <v>45477</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>583</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F35" s="9">
         <v>0</v>
@@ -4244,16 +4244,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B36" s="3">
         <v>45468</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>0</v>
@@ -4270,13 +4270,13 @@
         <v>341</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -4284,19 +4284,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>341</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -4310,13 +4310,13 @@
         <v>341</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -4330,13 +4330,13 @@
         <v>386</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -4344,19 +4344,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B41" s="6">
         <v>45468</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -4364,19 +4364,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B42" s="10">
         <v>45468</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F42" s="9">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>495</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>493</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B45" s="10">
         <v>45454</v>
@@ -4433,10 +4433,10 @@
         <v>493</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B46" s="10">
         <v>45454</v>
@@ -4453,10 +4453,10 @@
         <v>493</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -4464,16 +4464,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B47" s="3">
         <v>45443</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>0</v>
@@ -4484,19 +4484,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="F48" s="5">
         <v>1</v>
@@ -4510,13 +4510,13 @@
         <v>276</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -4530,13 +4530,13 @@
         <v>379</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -4544,19 +4544,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="F51" s="5">
         <v>2</v>
@@ -4564,19 +4564,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="F52" s="5">
         <v>2</v>
@@ -4584,19 +4584,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>641</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -4610,13 +4610,13 @@
         <v>252</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -4624,19 +4624,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>210</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F55" s="5">
         <v>2</v>
@@ -4644,19 +4644,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B56" s="10">
         <v>45443</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>625</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F56" s="9">
         <v>0</v>
@@ -4664,19 +4664,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B57" s="10">
         <v>45443</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>625</v>
-      </c>
       <c r="E57" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F57" s="9">
         <v>0</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B59" s="10">
         <v>45422</v>
@@ -4716,7 +4716,7 @@
         <v>518</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F59" s="9">
         <v>0</v>
@@ -4730,10 +4730,10 @@
         <v>45424</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>0</v>
@@ -4750,13 +4750,13 @@
         <v>488</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>513</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
@@ -4770,13 +4770,13 @@
         <v>511</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
@@ -4790,13 +4790,13 @@
         <v>489</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
@@ -4804,19 +4804,19 @@
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B64" s="10">
         <v>45424</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="E64" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>503</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>505</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>506</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F66" s="5">
         <v>1</v>
@@ -4870,13 +4870,13 @@
         <v>505</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>363</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -4890,13 +4890,13 @@
         <v>505</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F68" s="5">
         <v>1</v>
@@ -4904,19 +4904,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B69" s="10">
         <v>45413</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B72" s="10">
         <v>45326</v>
@@ -4976,7 +4976,7 @@
         <v>551</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B73" s="10">
         <v>45326</v>
@@ -4996,7 +4996,7 @@
         <v>551</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F73" s="9">
         <v>0</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B74" s="10">
         <v>45326</v>
@@ -5016,7 +5016,7 @@
         <v>551</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B79" s="10">
         <v>45397</v>
@@ -5116,7 +5116,7 @@
         <v>483</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F79" s="9">
         <v>0</v>
@@ -5124,16 +5124,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B80" s="3">
         <v>45426</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>0</v>
@@ -5144,19 +5144,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>666</v>
       </c>
       <c r="F81" s="5">
         <v>1</v>
@@ -5164,19 +5164,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>668</v>
-      </c>
       <c r="C82" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>510</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F82" s="5">
         <v>1</v>
@@ -5184,19 +5184,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="F83" s="5">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>45302</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>342</v>
@@ -5230,7 +5230,7 @@
         <v>321</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>322</v>
@@ -5250,7 +5250,7 @@
         <v>325</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>326</v>
@@ -5270,7 +5270,7 @@
         <v>318</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>328</v>
@@ -5290,7 +5290,7 @@
         <v>333</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>334</v>
@@ -5310,7 +5310,7 @@
         <v>338</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>339</v>
@@ -5324,19 +5324,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>466</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F90" s="5">
         <v>2</v>
@@ -5344,19 +5344,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>424</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="F91" s="5">
         <v>2</v>
@@ -5370,13 +5370,13 @@
         <v>210</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F92" s="5">
         <v>2</v>
@@ -5384,19 +5384,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>680</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F93" s="5">
         <v>2</v>
@@ -5404,19 +5404,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B94" s="10">
         <v>45302</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>342</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -5424,19 +5424,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B95" s="10">
         <v>45302</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>342</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F95" s="9">
         <v>0</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B99" s="10">
         <v>45392</v>
@@ -5516,7 +5516,7 @@
         <v>480</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F99" s="9">
         <v>0</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B104" s="10">
         <v>45386</v>
@@ -5616,7 +5616,7 @@
         <v>471</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F104" s="9">
         <v>0</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B105" s="10">
         <v>45386</v>
@@ -5636,7 +5636,7 @@
         <v>471</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F105" s="9">
         <v>0</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>357</v>
@@ -5716,7 +5716,7 @@
         <v>76</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
@@ -5724,19 +5724,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F110" s="5">
         <v>2</v>
@@ -5744,19 +5744,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F111" s="5">
         <v>2</v>
@@ -5764,19 +5764,19 @@
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>694</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>695</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F112" s="5">
         <v>2</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>125</v>
@@ -5793,10 +5793,10 @@
         <v>456</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F113" s="5">
         <v>2</v>
@@ -5804,19 +5804,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>701</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>702</v>
       </c>
       <c r="F114" s="5">
         <v>3</v>
@@ -5836,7 +5836,7 @@
         <v>353</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F115" s="5">
         <v>3</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>331</v>
@@ -5856,7 +5856,7 @@
         <v>26</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F116" s="5">
         <v>3</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>456</v>
@@ -5876,7 +5876,7 @@
         <v>380</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F117" s="5">
         <v>3</v>
@@ -5884,19 +5884,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F118" s="5">
         <v>3</v>
@@ -5904,10 +5904,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>710</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>456</v>
@@ -5916,7 +5916,7 @@
         <v>353</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F119" s="5">
         <v>3</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>713</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>456</v>
@@ -5936,7 +5936,7 @@
         <v>353</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F120" s="5">
         <v>3</v>
@@ -5944,19 +5944,19 @@
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F121" s="5">
         <v>3</v>
@@ -5967,16 +5967,16 @@
         <v>171</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F122" s="5">
         <v>3</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B123" s="10">
         <v>45382</v>
@@ -5996,7 +5996,7 @@
         <v>459</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
@@ -6004,16 +6004,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B124" s="3">
         <v>45379</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>0</v>
@@ -6024,19 +6024,19 @@
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D125" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>724</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>725</v>
       </c>
       <c r="F125" s="5">
         <v>1</v>
@@ -6044,19 +6044,19 @@
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>728</v>
-      </c>
       <c r="E126" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F126" s="5">
         <v>1</v>
@@ -6064,19 +6064,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>730</v>
-      </c>
       <c r="C127" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>721</v>
-      </c>
       <c r="E127" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F127" s="9">
         <v>0</v>
@@ -6107,16 +6107,16 @@
         <v>296</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>450</v>
       </c>
       <c r="D129" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="F129" s="5">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>451</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>450</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B131" s="10">
         <v>45372</v>
@@ -6156,7 +6156,7 @@
         <v>455</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F131" s="9">
         <v>0</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B136" s="10">
         <v>45366</v>
@@ -6256,7 +6256,7 @@
         <v>448</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -6264,16 +6264,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B137" s="3">
         <v>45363</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>0</v>
@@ -6284,19 +6284,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F138" s="5">
         <v>1</v>
@@ -6304,19 +6304,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>404</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>353</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F139" s="5">
         <v>1</v>
@@ -6324,19 +6324,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="F140" s="5">
         <v>1</v>
@@ -6344,19 +6344,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="C141" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>747</v>
-      </c>
       <c r="E141" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F141" s="5">
         <v>1</v>
@@ -6364,19 +6364,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>424</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>303</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F142" s="5">
         <v>1</v>
@@ -6384,19 +6384,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>358</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F143" s="5">
         <v>1</v>
@@ -6404,19 +6404,19 @@
     </row>
     <row r="144" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>404</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>353</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F144" s="5">
         <v>2</v>
@@ -6424,19 +6424,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B145" s="10">
         <v>45363</v>
       </c>
       <c r="C145" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D145" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="D145" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="E145" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F145" s="9">
         <v>0</v>
@@ -6444,16 +6444,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B146" s="3">
         <v>45363</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>0</v>
@@ -6464,19 +6464,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B147" s="10">
         <v>45363</v>
       </c>
       <c r="C147" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="E147" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F147" s="9">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>45358</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>438</v>
@@ -6510,7 +6510,7 @@
         <v>156</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>198</v>
@@ -6524,19 +6524,19 @@
     </row>
     <row r="150" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B150" s="10">
         <v>45358</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>438</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F150" s="9">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>417</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>428</v>
@@ -6707,16 +6707,16 @@
         <v>419</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>417</v>
       </c>
       <c r="D159" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E159" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="F159" s="5">
         <v>2</v>
@@ -6733,10 +6733,10 @@
         <v>417</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F160" s="5">
         <v>2</v>
@@ -6747,16 +6747,16 @@
         <v>429</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>417</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F161" s="5">
         <v>2</v>
@@ -6767,16 +6767,16 @@
         <v>431</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>417</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F162" s="5">
         <v>2</v>
@@ -6787,16 +6787,16 @@
         <v>434</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>417</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F163" s="5">
         <v>2</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>452</v>
@@ -6813,10 +6813,10 @@
         <v>417</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F164" s="5">
         <v>2</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B165" s="10">
         <v>45359</v>
@@ -6836,7 +6836,7 @@
         <v>418</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F165" s="9">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>45216</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>0</v>
@@ -6870,13 +6870,13 @@
         <v>125</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F167" s="5">
         <v>1</v>
@@ -6890,13 +6890,13 @@
         <v>128</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F168" s="5">
         <v>1</v>
@@ -6904,19 +6904,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F169" s="5">
         <v>1</v>
@@ -6930,13 +6930,13 @@
         <v>220</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F170" s="5">
         <v>1</v>
@@ -6950,13 +6950,13 @@
         <v>131</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F171" s="5">
         <v>1</v>
@@ -6967,16 +6967,16 @@
         <v>134</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F172" s="5">
         <v>1</v>
@@ -6990,13 +6990,13 @@
         <v>138</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F173" s="5">
         <v>1</v>
@@ -7007,16 +7007,16 @@
         <v>141</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F174" s="5">
         <v>1</v>
@@ -7030,13 +7030,13 @@
         <v>143</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F175" s="5">
         <v>1</v>
@@ -7047,16 +7047,16 @@
         <v>145</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F176" s="5">
         <v>1</v>
@@ -7070,13 +7070,13 @@
         <v>103</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F177" s="5">
         <v>1</v>
@@ -7090,13 +7090,13 @@
         <v>146</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F178" s="5">
         <v>1</v>
@@ -7110,13 +7110,13 @@
         <v>152</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
@@ -7124,19 +7124,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B180" s="10">
         <v>45216</v>
       </c>
       <c r="C180" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>772</v>
-      </c>
       <c r="E180" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F180" s="9">
         <v>0</v>
@@ -7144,19 +7144,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B181" s="10">
         <v>45216</v>
       </c>
       <c r="C181" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D181" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>772</v>
-      </c>
       <c r="E181" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F181" s="9">
         <v>0</v>
@@ -7164,16 +7164,16 @@
     </row>
     <row r="182" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B182" s="3">
         <v>45350</v>
       </c>
       <c r="C182" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>0</v>
@@ -7184,19 +7184,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="C183" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="D183" s="5" t="s">
+      <c r="E183" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="F183" s="5">
         <v>1</v>
@@ -7210,13 +7210,13 @@
         <v>33</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F184" s="5">
         <v>1</v>
@@ -7224,19 +7224,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B185" s="10">
         <v>45350</v>
       </c>
       <c r="C185" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>784</v>
-      </c>
       <c r="E185" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B189" s="10">
         <v>45344</v>
@@ -7316,7 +7316,7 @@
         <v>408</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
@@ -7324,16 +7324,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B190" s="3">
         <v>45338</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>0</v>
@@ -7344,19 +7344,19 @@
     </row>
     <row r="191" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="D191" s="5" t="s">
+      <c r="E191" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>
@@ -7364,19 +7364,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>280</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F192" s="5">
         <v>1</v>
@@ -7384,19 +7384,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>800</v>
-      </c>
       <c r="C193" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F193" s="5">
         <v>1</v>
@@ -7404,19 +7404,19 @@
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B194" s="10">
         <v>45338</v>
       </c>
       <c r="C194" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D194" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="D194" s="9" t="s">
-        <v>793</v>
-      </c>
       <c r="E194" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F194" s="9">
         <v>0</v>
@@ -7430,7 +7430,7 @@
         <v>45311</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>392</v>
@@ -7450,13 +7450,13 @@
         <v>386</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F196" s="5">
         <v>1</v>
@@ -7470,13 +7470,13 @@
         <v>341</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F197" s="5">
         <v>1</v>
@@ -7487,16 +7487,16 @@
         <v>296</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C198" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E198" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>803</v>
       </c>
       <c r="F198" s="5">
         <v>1</v>
@@ -7504,19 +7504,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>388</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F199" s="5">
         <v>1</v>
@@ -7530,13 +7530,13 @@
         <v>276</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>390</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F200" s="5">
         <v>1</v>
@@ -7550,13 +7550,13 @@
         <v>386</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F201" s="5">
         <v>1</v>
@@ -7564,19 +7564,19 @@
     </row>
     <row r="202" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B202" s="10">
         <v>45311</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -7584,19 +7584,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B203" s="10">
         <v>45311</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F203" s="9">
         <v>0</v>
@@ -7604,16 +7604,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B204" s="3">
         <v>45335</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>0</v>
@@ -7624,19 +7624,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="C205" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="E205" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="F205" s="5">
         <v>1</v>
@@ -7644,19 +7644,19 @@
     </row>
     <row r="206" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F206" s="5">
         <v>1</v>
@@ -7664,19 +7664,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B207" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="C207" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="E207" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="F207" s="5">
         <v>1</v>
@@ -7684,19 +7684,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B208" s="10">
         <v>45335</v>
       </c>
       <c r="C208" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>811</v>
-      </c>
       <c r="E208" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F208" s="9">
         <v>0</v>
@@ -7710,7 +7710,7 @@
         <v>45305</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>359</v>
@@ -7730,13 +7730,13 @@
         <v>115</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F210" s="5">
         <v>1</v>
@@ -7750,13 +7750,13 @@
         <v>346</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>347</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F211" s="5">
         <v>1</v>
@@ -7770,13 +7770,13 @@
         <v>349</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>350</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F212" s="5">
         <v>1</v>
@@ -7787,16 +7787,16 @@
         <v>351</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F213" s="1">
         <v>1</v>
@@ -7810,13 +7810,13 @@
         <v>355</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F214" s="1">
         <v>1</v>
@@ -7824,19 +7824,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="C215" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="D215" s="5" t="s">
+      <c r="E215" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>825</v>
       </c>
       <c r="F215" s="5">
         <v>2</v>
@@ -7847,16 +7847,16 @@
         <v>521</v>
       </c>
       <c r="B216" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>827</v>
-      </c>
       <c r="E216" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F216" s="5">
         <v>2</v>
@@ -7864,19 +7864,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="C217" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D217" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="C217" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="D217" s="5" t="s">
+      <c r="E217" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>831</v>
       </c>
       <c r="F217" s="5">
         <v>2</v>
@@ -7884,19 +7884,19 @@
     </row>
     <row r="218" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>353</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F218" s="5">
         <v>2</v>
@@ -7904,19 +7904,19 @@
     </row>
     <row r="219" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>303</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F219" s="5">
         <v>2</v>
@@ -7924,19 +7924,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>835</v>
-      </c>
       <c r="E220" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F220" s="5">
         <v>2</v>
@@ -7944,19 +7944,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>837</v>
-      </c>
       <c r="C221" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F221" s="5">
         <v>2</v>
@@ -7964,19 +7964,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D222" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E222" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="F222" s="5">
         <v>3</v>
@@ -7984,19 +7984,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F223" s="5">
         <v>3</v>
@@ -8004,19 +8004,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B224" s="12">
         <v>45305</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F224" s="11">
         <v>0</v>
@@ -8024,19 +8024,19 @@
     </row>
     <row r="225" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B225" s="12">
         <v>45305</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F225" s="11">
         <v>0</v>
@@ -8044,16 +8044,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B226" s="3">
         <v>45330</v>
       </c>
       <c r="C226" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>0</v>
@@ -8064,19 +8064,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="D227" s="5" t="s">
+      <c r="E227" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="F227" s="5">
         <v>1</v>
@@ -8084,19 +8084,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="D228" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>851</v>
-      </c>
       <c r="E228" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F228" s="5">
         <v>1</v>
@@ -8104,19 +8104,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>501</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F229" s="5">
         <v>1</v>
@@ -8130,13 +8130,13 @@
         <v>432</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F230" s="5">
         <v>1</v>
@@ -8144,19 +8144,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F231" s="5">
         <v>1</v>
@@ -8164,19 +8164,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>414</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D232" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E232" s="5" t="s">
         <v>857</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>858</v>
       </c>
       <c r="F232" s="5">
         <v>1</v>
@@ -8184,19 +8184,19 @@
     </row>
     <row r="233" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B233" s="10">
         <v>45330</v>
       </c>
       <c r="C233" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="D233" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="D233" s="9" t="s">
-        <v>846</v>
-      </c>
       <c r="E233" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F233" s="9">
         <v>0</v>
@@ -8204,16 +8204,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B234" s="3">
         <v>45334</v>
       </c>
       <c r="C234" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>414</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F235" s="5">
         <v>1</v>
@@ -8244,19 +8244,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B236" s="10">
         <v>45334</v>
       </c>
       <c r="C236" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="D236" s="9" t="s">
-        <v>862</v>
-      </c>
       <c r="E236" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F236" s="9">
         <v>0</v>
@@ -8264,16 +8264,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B237" s="3">
         <v>45325</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>0</v>
@@ -8284,19 +8284,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="C238" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D238" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="D238" s="5" t="s">
+      <c r="E238" s="5" t="s">
         <v>870</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>871</v>
       </c>
       <c r="F238" s="5">
         <v>1</v>
@@ -8304,19 +8304,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>280</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F239" s="5">
         <v>1</v>
@@ -8324,19 +8324,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B240" s="10">
         <v>45325</v>
       </c>
       <c r="C240" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D240" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="D240" s="9" t="s">
-        <v>867</v>
-      </c>
       <c r="E240" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F240" s="9">
         <v>0</v>
@@ -8344,16 +8344,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B241" s="3">
         <v>45325</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>0</v>
@@ -8367,16 +8367,16 @@
         <v>296</v>
       </c>
       <c r="B242" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D242" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="C242" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="D242" s="5" t="s">
+      <c r="E242" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>879</v>
       </c>
       <c r="F242" s="5">
         <v>1</v>
@@ -8384,19 +8384,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B243" s="10">
         <v>45325</v>
       </c>
       <c r="C243" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="D243" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="D243" s="9" t="s">
-        <v>876</v>
-      </c>
       <c r="E243" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F243" s="9">
         <v>0</v>
@@ -8404,16 +8404,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B244" s="3">
         <v>45322</v>
       </c>
       <c r="C244" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>0</v>
@@ -8424,19 +8424,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B245" s="10">
         <v>45322</v>
       </c>
       <c r="C245" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="D245" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="D245" s="9" t="s">
-        <v>882</v>
-      </c>
       <c r="E245" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F245" s="9">
         <v>0</v>
@@ -8444,16 +8444,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B246" s="3">
         <v>45315</v>
       </c>
       <c r="C246" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>0</v>
@@ -8464,19 +8464,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D247" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="E247" s="5" t="s">
         <v>888</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>889</v>
       </c>
       <c r="F247" s="5">
         <v>1</v>
@@ -8484,19 +8484,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F248" s="5">
         <v>1</v>
@@ -8504,19 +8504,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F249" s="5">
         <v>1</v>
@@ -8524,19 +8524,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D250" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E250" s="5" t="s">
         <v>895</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>896</v>
       </c>
       <c r="F250" s="5">
         <v>1</v>
@@ -8544,19 +8544,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>343</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F251" s="5">
         <v>1</v>
@@ -8564,19 +8564,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F252" s="5">
         <v>1</v>
@@ -8584,19 +8584,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B253" s="10">
         <v>45315</v>
       </c>
       <c r="C253" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="D253" s="9" t="s">
-        <v>886</v>
-      </c>
       <c r="E253" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F253" s="9">
         <v>0</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B258" s="10">
         <v>45313</v>
@@ -8696,7 +8696,7 @@
         <v>405</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F258" s="9">
         <v>0</v>
@@ -8704,16 +8704,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B259" s="3">
         <v>45230</v>
       </c>
       <c r="C259" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>0</v>
@@ -8724,19 +8724,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="C260" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D260" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D260" s="5" t="s">
+      <c r="E260" s="5" t="s">
         <v>907</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>908</v>
       </c>
       <c r="F260" s="5">
         <v>1</v>
@@ -8744,19 +8744,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="C261" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D261" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>911</v>
-      </c>
       <c r="E261" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F261" s="5">
         <v>1</v>
@@ -8767,16 +8767,16 @@
         <v>77</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>913</v>
-      </c>
       <c r="E262" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F262" s="5">
         <v>1</v>
@@ -8784,19 +8784,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="C263" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D263" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D263" s="5" t="s">
+      <c r="E263" s="5" t="s">
         <v>916</v>
-      </c>
-      <c r="E263" s="5" t="s">
-        <v>917</v>
       </c>
       <c r="F263" s="5">
         <v>1</v>
@@ -8804,19 +8804,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F264" s="5">
         <v>1</v>
@@ -8824,19 +8824,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="C265" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D265" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>921</v>
-      </c>
       <c r="E265" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F265" s="5">
         <v>1</v>
@@ -8844,19 +8844,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B266" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D266" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>911</v>
-      </c>
       <c r="E266" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F266" s="5">
         <v>1</v>
@@ -8864,19 +8864,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B267" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D267" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>911</v>
-      </c>
       <c r="E267" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F267" s="5">
         <v>1</v>
@@ -8884,19 +8884,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B268" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D268" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>911</v>
-      </c>
       <c r="E268" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F268" s="5">
         <v>1</v>
@@ -8904,19 +8904,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F269" s="5">
         <v>1</v>
@@ -8924,19 +8924,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B270" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D270" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>911</v>
-      </c>
       <c r="E270" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F270" s="5">
         <v>1</v>
@@ -8944,19 +8944,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B271" s="10">
         <v>45230</v>
       </c>
       <c r="C271" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D271" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="D271" s="9" t="s">
-        <v>904</v>
-      </c>
       <c r="E271" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F271" s="9">
         <v>0</v>
@@ -8964,16 +8964,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B272" s="3">
         <v>45353</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>0</v>
@@ -8984,19 +8984,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C273" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E273" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>929</v>
       </c>
       <c r="F273" s="5">
         <v>1</v>
@@ -9004,19 +9004,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="C274" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="D274" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="E274" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>929</v>
       </c>
       <c r="F274" s="5">
         <v>1</v>
@@ -9024,19 +9024,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B275" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="C275" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="D275" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="E275" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>929</v>
       </c>
       <c r="F275" s="5">
         <v>1</v>
@@ -9044,19 +9044,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F276" s="5">
         <v>1</v>
@@ -9064,19 +9064,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F277" s="5">
         <v>1</v>
@@ -9084,19 +9084,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B278" s="10">
         <v>45353</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F278" s="9">
         <v>0</v>
@@ -9153,7 +9153,7 @@
         <v>374</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>378</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>313</v>
@@ -9193,10 +9193,10 @@
         <v>374</v>
       </c>
       <c r="D283" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E283" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>938</v>
       </c>
       <c r="F283" s="5">
         <v>2</v>
@@ -9213,10 +9213,10 @@
         <v>374</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F284" s="5">
         <v>2</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>128</v>
@@ -9233,10 +9233,10 @@
         <v>374</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F285" s="5">
         <v>2</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>313</v>
@@ -9253,10 +9253,10 @@
         <v>374</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F286" s="5">
         <v>2</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B287" s="10">
         <v>45316</v>
@@ -9276,7 +9276,7 @@
         <v>375</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F287" s="9">
         <v>0</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>245</v>
@@ -9313,10 +9313,10 @@
         <v>371</v>
       </c>
       <c r="D289" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="E289" s="5" t="s">
         <v>944</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>945</v>
       </c>
       <c r="F289" s="5">
         <v>1</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B290" s="10">
         <v>45310</v>
@@ -9336,7 +9336,7 @@
         <v>372</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F290" s="9">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>361</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>366</v>
@@ -9464,16 +9464,16 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>361</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>366</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B298" s="10">
         <v>45307</v>
@@ -9496,7 +9496,7 @@
         <v>369</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F298" s="9">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B304" s="10">
         <v>45268</v>
@@ -9616,7 +9616,7 @@
         <v>221</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F304" s="9">
         <v>0</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B305" s="10">
         <v>45268</v>
@@ -9636,7 +9636,7 @@
         <v>221</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F305" s="9">
         <v>0</v>
@@ -9644,16 +9644,16 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B306" s="3">
         <v>45304</v>
       </c>
       <c r="C306" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="D306" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>0</v>
@@ -9664,19 +9664,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B307" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B307" s="5" t="s">
-        <v>955</v>
-      </c>
       <c r="C307" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F307" s="5">
         <v>1</v>
@@ -9684,19 +9684,19 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B308" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="D308" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="C308" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D308" s="5" t="s">
+      <c r="E308" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>959</v>
       </c>
       <c r="F308" s="5">
         <v>1</v>
@@ -9704,19 +9704,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F309" s="5">
         <v>1</v>
@@ -9724,19 +9724,19 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>343</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F310" s="5">
         <v>1</v>
@@ -9744,19 +9744,19 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F311" s="5">
         <v>1</v>
@@ -9764,19 +9764,19 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B312" s="10">
         <v>45304</v>
       </c>
       <c r="C312" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="D312" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="D312" s="9" t="s">
-        <v>953</v>
-      </c>
       <c r="E312" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F312" s="9">
         <v>0</v>
@@ -9790,10 +9790,10 @@
         <v>45245</v>
       </c>
       <c r="C313" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>0</v>
@@ -9804,19 +9804,19 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B314" s="10">
         <v>45611</v>
       </c>
       <c r="C314" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="D314" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="D314" s="9" t="s">
-        <v>966</v>
-      </c>
       <c r="E314" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F314" s="9">
         <v>0</v>
@@ -9824,19 +9824,19 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B315" s="10">
         <v>45611</v>
       </c>
       <c r="C315" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="D315" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="D315" s="9" t="s">
-        <v>966</v>
-      </c>
       <c r="E315" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F315" s="9">
         <v>0</v>
@@ -9864,7 +9864,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B317" s="10">
         <v>45297</v>
@@ -9876,7 +9876,7 @@
         <v>316</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F317" s="9">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>45293</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>306</v>
@@ -9904,19 +9904,19 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B319" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="C319" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="D319" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="C319" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="D319" s="5" t="s">
+      <c r="E319" s="5" t="s">
         <v>973</v>
-      </c>
-      <c r="E319" s="5" t="s">
-        <v>974</v>
       </c>
       <c r="F319" s="5">
         <v>1</v>
@@ -9930,13 +9930,13 @@
         <v>167</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F320" s="5">
         <v>1</v>
@@ -9950,13 +9950,13 @@
         <v>228</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>310</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F321" s="5">
         <v>1</v>
@@ -9970,13 +9970,13 @@
         <v>167</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>312</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F322" s="5">
         <v>1</v>
@@ -9990,13 +9990,13 @@
         <v>146</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F323" s="5">
         <v>1</v>
@@ -10010,13 +10010,13 @@
         <v>313</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F324" s="5">
         <v>1</v>
@@ -10024,19 +10024,19 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B325" s="10">
         <v>45293</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>306</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F325" s="9">
         <v>0</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B331" s="10">
         <v>45296</v>
@@ -10153,10 +10153,10 @@
         <v>294</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F331" s="9">
         <v>0</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B336" s="10">
         <v>45288</v>
@@ -10256,7 +10256,7 @@
         <v>292</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F336" s="9">
         <v>0</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B339" s="10">
         <v>45286</v>
@@ -10316,7 +10316,7 @@
         <v>282</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F339" s="9">
         <v>0</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B346" s="10">
         <v>45282</v>
@@ -10456,7 +10456,7 @@
         <v>272</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F346" s="9">
         <v>0</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B353" s="10">
         <v>45281</v>
@@ -10596,7 +10596,7 @@
         <v>257</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F353" s="9">
         <v>0</v>
@@ -10764,7 +10764,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B362" s="10">
         <v>45281</v>
@@ -10776,7 +10776,7 @@
         <v>241</v>
       </c>
       <c r="E362" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F362" s="9">
         <v>0</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B364" s="10">
         <v>45289</v>
@@ -10813,10 +10813,10 @@
         <v>224</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E364" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F364" s="9">
         <v>0</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B370" s="10">
         <v>45266</v>
@@ -10936,7 +10936,7 @@
         <v>206</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F370" s="9">
         <v>0</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B374" s="10">
         <v>45260</v>
@@ -11013,10 +11013,10 @@
         <v>180</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F374" s="9">
         <v>0</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B380" s="10">
         <v>45247</v>
@@ -11136,7 +11136,7 @@
         <v>178</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F380" s="9">
         <v>0</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>30</v>
@@ -11453,10 +11453,10 @@
         <v>68</v>
       </c>
       <c r="D396" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="E396" s="5" t="s">
         <v>993</v>
-      </c>
-      <c r="E396" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="F396" s="5">
         <v>2</v>
@@ -11464,19 +11464,19 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="B397" s="5" t="s">
         <v>995</v>
-      </c>
-      <c r="B397" s="5" t="s">
-        <v>996</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D397" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="E397" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="E397" s="5" t="s">
-        <v>998</v>
       </c>
       <c r="F397" s="5">
         <v>2</v>
@@ -11484,7 +11484,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>30</v>
@@ -11493,10 +11493,10 @@
         <v>68</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F398" s="5">
         <v>2</v>
@@ -11504,10 +11504,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B399" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>1002</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>68</v>
@@ -11516,7 +11516,7 @@
         <v>26</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F399" s="5">
         <v>2</v>
@@ -11527,7 +11527,7 @@
         <v>66</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>68</v>
@@ -11536,7 +11536,7 @@
         <v>144</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F400" s="5">
         <v>2</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B401" s="6">
         <v>45144</v>
@@ -11556,7 +11556,7 @@
         <v>59</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F401" s="5">
         <v>2</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B403" s="10">
         <v>45141</v>
@@ -11593,10 +11593,10 @@
         <v>68</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E403" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F403" s="9">
         <v>0</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B404" s="10">
         <v>45141</v>
@@ -11613,10 +11613,10 @@
         <v>68</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E404" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F404" s="9">
         <v>0</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B409" s="10">
         <v>45207</v>
@@ -11716,7 +11716,7 @@
         <v>119</v>
       </c>
       <c r="E409" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F409" s="9">
         <v>0</v>
@@ -11964,7 +11964,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B422" s="10">
         <v>45202</v>
@@ -11976,7 +11976,7 @@
         <v>73</v>
       </c>
       <c r="E422" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F422" s="9">
         <v>0</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B429" s="14">
         <v>45124</v>
@@ -12113,10 +12113,10 @@
         <v>3</v>
       </c>
       <c r="D429" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E429" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F429" s="13">
         <v>0</v>
